--- a/AR接続端子説明書　基本設計.xlsx
+++ b/AR接続端子説明書　基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\ARTerminalManual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054CD575-3DC6-439C-86E5-DFFF771828E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A27C6C-5A15-40A1-8044-3D3F5E8CBE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>発行日　2019/12/13</t>
     <rPh sb="0" eb="2">
@@ -181,25 +181,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ARCore</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プラットフォーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AR接続端子説明書：Android　iPhone
-　</t>
-    <rPh sb="2" eb="4">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タンシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セツメイショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -207,7 +189,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>端子説明設定　　 ：PC</t>
+    <t>https://blog.gcrest.com/archives/1013</t>
+  </si>
+  <si>
+    <t>UnityでARCoreのAugmentedImageを使って高精度マーカーARを楽しむ</t>
+  </si>
+  <si>
+    <t>https://github.com/google-ar/arcore-unity-sdk/releases/tag/v1.9.0</t>
+  </si>
+  <si>
+    <t>ARCore-Unity-SDK1.9.0</t>
+  </si>
+  <si>
+    <t>QRコード[二次元バーコード]作成 【無料】</t>
+  </si>
+  <si>
+    <t>https://www.cman.jp/QRcode/</t>
+  </si>
+  <si>
+    <t>https://www.photo-ac.com/main/search?q=HDMI%E3%82%B1%E3%83%BC%E3%83%96%E3%83%AB&amp;srt=dlrank</t>
+  </si>
+  <si>
+    <t>PhotoAC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleが「ARCore」対応端末のリストを更新、Apple製端末でも一部の機能が利用可能に</t>
+  </si>
+  <si>
+    <t>https://www.dospara.co.jp/express/vr/893096</t>
+  </si>
+  <si>
+    <t>端子説明設定　　 ：PC Windows10</t>
     <rPh sb="0" eb="2">
       <t>タンシ</t>
     </rPh>
@@ -219,12 +232,35 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>AR接続端子説明書：Android　7.0以上</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セツメイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　iPhone 11.0以上</t>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,14 +319,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
@@ -306,6 +334,22 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -335,15 +379,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,18 +394,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5702,7 +5751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -5717,152 +5766,152 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
     </row>
     <row r="43" spans="2:16" ht="15" customHeight="1">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5884,44 +5933,44 @@
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5943,44 +5992,44 @@
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6010,96 +6059,157 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3EB6EE-27BD-4365-AA92-527DDB016D5A}">
-  <dimension ref="B2:V20"/>
+  <dimension ref="B2:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="15" customHeight="1">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:27" ht="15" customHeight="1">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="W2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
+    <row r="3" spans="2:27" ht="15" customHeight="1">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
-    <row r="6" spans="2:22" ht="15" customHeight="1">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:27" ht="15" customHeight="1">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="W6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="15" customHeight="1">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:27" ht="15" customHeight="1">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="W7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="15" customHeight="1">
-      <c r="R8" s="2" t="s">
-        <v>12</v>
+    <row r="8" spans="2:27" ht="15" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="W8" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="15" customHeight="1">
-      <c r="R14" s="11" t="s">
-        <v>13</v>
+    <row r="9" spans="2:27" ht="15" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="2:22" ht="15" customHeight="1">
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="18" spans="18:18" ht="15" customHeight="1">
-      <c r="R18" s="5" t="s">
+    <row r="10" spans="2:27" ht="15" customHeight="1">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="18:18" ht="15" customHeight="1">
-      <c r="R19" t="s">
-        <v>15</v>
+    <row r="11" spans="2:27" ht="15" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="2:27" ht="15" customHeight="1">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="18:18" ht="15" customHeight="1">
-      <c r="R20" t="s">
+    <row r="13" spans="2:27" ht="15" customHeight="1">
+      <c r="B13" s="15" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="15" customHeight="1">
+      <c r="B14" s="11"/>
+      <c r="W14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+    </row>
+    <row r="15" spans="2:27" ht="15" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="2:27" ht="15" customHeight="1">
+      <c r="B16" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="15" customHeight="1">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:23" ht="15" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="15" customHeight="1">
+      <c r="B19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="15" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="W20" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="15" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="15" customHeight="1">
+      <c r="B22" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:U3"/>
-    <mergeCell ref="R14:V15"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="W14:AA15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD32CD58-71A8-432B-8A51-DB333D464D02}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{4F5C85A4-5F01-4F11-8CC0-ACADB55E957B}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{78B38655-2E89-4744-8160-75F055E88F50}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{72EF6281-C65D-4C85-8D69-6ED712E925E0}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{BC4402AD-B669-4507-856A-97922514EE10}"/>
+    <hyperlink ref="B22" r:id="rId6" xr:uid="{4790EE08-45B6-46FF-8E55-8FFDB1592356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/AR接続端子説明書　基本設計.xlsx
+++ b/AR接続端子説明書　基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\ARTerminalManual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A27C6C-5A15-40A1-8044-3D3F5E8CBE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D0224-366B-488F-BC6E-DB20FAE3C756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3432" yWindow="456" windowWidth="17280" windowHeight="11376" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -385,6 +385,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,14 +414,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1188,7 +1188,7 @@
                 <a:latin typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
                 <a:ea typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
               </a:rPr>
-              <a:t>200</a:t>
+              <a:t>20</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
@@ -1903,7 +1903,7 @@
                 <a:latin typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
                 <a:ea typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
               </a:rPr>
-              <a:t>500</a:t>
+              <a:t>200</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
@@ -4179,7 +4179,7 @@
               <a:latin typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
               <a:ea typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
             </a:rPr>
-            <a:t>200</a:t>
+            <a:t>20</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
@@ -4552,7 +4552,7 @@
               <a:latin typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
               <a:ea typeface="HGS行書体" panose="03000600000000000000" pitchFamily="66" charset="-128"/>
             </a:rPr>
-            <a:t>500</a:t>
+            <a:t>200</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
@@ -5766,152 +5766,152 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
     </row>
     <row r="43" spans="2:16" ht="15" customHeight="1">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5933,44 +5933,44 @@
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5987,49 +5987,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CD9C6-0806-4DB7-849F-070A194FA86C}">
   <dimension ref="B2:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6061,49 +6061,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3EB6EE-27BD-4365-AA92-527DDB016D5A}">
   <dimension ref="B2:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:27" ht="15" customHeight="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="W2" s="8" t="s">
+      <c r="C2" s="14"/>
+      <c r="W2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="2:27" ht="15" customHeight="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
     </row>
     <row r="6" spans="2:27" ht="15" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="15" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="15" customHeight="1">
-      <c r="B8" s="11"/>
-      <c r="W8" s="10" t="s">
+      <c r="B8" s="4"/>
+      <c r="W8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6113,83 +6113,83 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="15" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="15" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="2:27" ht="15" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="15" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="15" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="W14" s="9" t="s">
+      <c r="B14" s="4"/>
+      <c r="W14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="2:27" ht="15" customHeight="1">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="2:27" ht="15" customHeight="1">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="15" customHeight="1">
-      <c r="B17" s="11"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:23" ht="15" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="12" t="s">
+      <c r="W18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="15" customHeight="1">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="13" t="s">
+      <c r="W19" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="15" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="W20" s="13" t="s">
+      <c r="B20" s="4"/>
+      <c r="W20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="15" customHeight="1">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="13" t="s">
+      <c r="W21" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="15" customHeight="1">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/AR接続端子説明書　基本設計.xlsx
+++ b/AR接続端子説明書　基本設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\ARTerminalManual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D0224-366B-488F-BC6E-DB20FAE3C756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8836FBD-A2B6-44BC-B3A4-A672EFCF973E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="456" windowWidth="17280" windowHeight="11376" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>発行日　2019/12/13</t>
     <rPh sb="0" eb="2">
@@ -157,9 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://developers.cyberagent.co.jp/blog/archives/6649/</t>
-  </si>
-  <si>
     <t>Unityにおける通信APIを色々試して罠を踏んだ話</t>
   </si>
   <si>
@@ -189,13 +186,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://blog.gcrest.com/archives/1013</t>
-  </si>
-  <si>
     <t>UnityでARCoreのAugmentedImageを使って高精度マーカーARを楽しむ</t>
-  </si>
-  <si>
-    <t>https://github.com/google-ar/arcore-unity-sdk/releases/tag/v1.9.0</t>
   </si>
   <si>
     <t>ARCore-Unity-SDK1.9.0</t>
@@ -204,20 +195,11 @@
     <t>QRコード[二次元バーコード]作成 【無料】</t>
   </si>
   <si>
-    <t>https://www.cman.jp/QRcode/</t>
-  </si>
-  <si>
-    <t>https://www.photo-ac.com/main/search?q=HDMI%E3%82%B1%E3%83%BC%E3%83%96%E3%83%AB&amp;srt=dlrank</t>
-  </si>
-  <si>
     <t>PhotoAC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Googleが「ARCore」対応端末のリストを更新、Apple製端末でも一部の機能が利用可能に</t>
-  </si>
-  <si>
-    <t>https://www.dospara.co.jp/express/vr/893096</t>
   </si>
   <si>
     <t>端子説明設定　　 ：PC Windows10</t>
@@ -255,12 +237,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>今更誰も教えてくれない、Unityにおけるアセット読み込みについての基礎知識</t>
+  </si>
+  <si>
+    <t>【Unity】NCMBを使ってサーバにデータを保存、取得する方法</t>
+  </si>
+  <si>
+    <t>【Unity】備忘録#4　画像読み込みについて</t>
+  </si>
+  <si>
+    <t>外部フォルダのpngファイルをbyte[]に変換したい</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +351,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,20 +382,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,6 +418,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5766,152 +5771,152 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
     </row>
     <row r="43" spans="2:16" ht="15" customHeight="1">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5933,67 +5938,8 @@
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:R3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CD9C6-0806-4DB7-849F-070A194FA86C}">
-  <dimension ref="B2:R3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
-  <sheetData>
-    <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6042,6 +5988,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CD9C6-0806-4DB7-849F-070A194FA86C}">
+  <dimension ref="B2:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" customHeight="1">
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:R3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A51A67D-5D12-4BB2-8B78-841DFC97BAFA}">
   <dimension ref="A1"/>
@@ -6059,138 +6064,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3EB6EE-27BD-4365-AA92-527DDB016D5A}">
-  <dimension ref="B2:AA22"/>
+  <dimension ref="B2:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:27" ht="15" customHeight="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="W2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="W2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+    </row>
+    <row r="3" spans="2:27" ht="15" customHeight="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+    </row>
+    <row r="6" spans="2:27" ht="15" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="2:27" ht="15" customHeight="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-    </row>
-    <row r="6" spans="2:27" ht="15" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W6" s="4" t="s">
+    <row r="7" spans="2:27" ht="15" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="W7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="15" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>7</v>
+    <row r="8" spans="2:27" ht="15" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" ht="15" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="W8" s="3" t="s">
-        <v>17</v>
+      <c r="W8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="15" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:27" ht="15" customHeight="1">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="15" customHeight="1">
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:27" ht="15" customHeight="1">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="15" customHeight="1">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:27" ht="15" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+    </row>
+    <row r="15" spans="2:27" ht="15" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+    </row>
+    <row r="16" spans="2:27" ht="15" customHeight="1">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="15" customHeight="1">
-      <c r="B13" s="8" t="s">
-        <v>16</v>
+    <row r="17" spans="2:23" ht="15" customHeight="1">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:23" ht="15" customHeight="1">
+      <c r="B18" s="9" t="s">
+        <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" ht="15" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="W14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="2:27" ht="15" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="2:27" ht="15" customHeight="1">
-      <c r="B16" s="8" t="s">
+      <c r="W18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="15" customHeight="1">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:23" ht="15" customHeight="1">
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="19" spans="2:23" ht="15" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7"/>
+      <c r="W19" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="15" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="W20" s="6" t="s">
-        <v>13</v>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="15" customHeight="1">
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>24</v>
+      <c r="W21" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="15" customHeight="1">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="15" customHeight="1">
+      <c r="B24" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6201,15 +6206,19 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{DD32CD58-71A8-432B-8A51-DB333D464D02}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{4F5C85A4-5F01-4F11-8CC0-ACADB55E957B}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{78B38655-2E89-4744-8160-75F055E88F50}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{72EF6281-C65D-4C85-8D69-6ED712E925E0}"/>
-    <hyperlink ref="B19" r:id="rId5" xr:uid="{BC4402AD-B669-4507-856A-97922514EE10}"/>
-    <hyperlink ref="B22" r:id="rId6" xr:uid="{4790EE08-45B6-46FF-8E55-8FFDB1592356}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{91FACCEC-1CB2-477D-A7F9-996A512258B0}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{41F47868-4E6D-4DAB-A90C-CDBB579299DC}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{239DA4A5-1BB7-4311-8EE9-87B8163E76A9}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{D47919C9-D40E-49DD-B5CA-2964ADD10F2A}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{F60A778A-2885-47FD-BDA0-183B5E6BABB0}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{A9BBE93C-5D40-4A70-9FF7-1243D5FBF297}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{78B3F56B-7855-463D-805D-095B5BE43D40}"/>
+    <hyperlink ref="B20" r:id="rId8" xr:uid="{76C1E9AF-A97E-4E04-8BFB-53CE4DA5D7DE}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{26EE30B8-2F89-4145-8EA1-5A72F93AE659}"/>
+    <hyperlink ref="B24" r:id="rId10" xr:uid="{6463CB4D-3ECB-4A4E-AE11-9D9D3B3A3660}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/AR接続端子説明書　基本設計.xlsx
+++ b/AR接続端子説明書　基本設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\ARTerminalManual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8836FBD-A2B6-44BC-B3A4-A672EFCF973E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95528A00-1534-4E61-8E13-287200317307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>発行日　2019/12/13</t>
     <rPh sb="0" eb="2">
@@ -249,12 +249,18 @@
   <si>
     <t>外部フォルダのpngファイルをbyte[]に変換したい</t>
   </si>
+  <si>
+    <t>【Unity】動的に要素が増える背景画像付きのScroolViewの実装方法</t>
+  </si>
+  <si>
+    <t>[Unity] OpenFileDialogをWindowsアプリ(exe)で使う</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +366,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +412,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,7 +434,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5771,152 +5792,152 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" spans="2:16" ht="15" customHeight="1">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5938,67 +5959,8 @@
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:R3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CD9C6-0806-4DB7-849F-070A194FA86C}">
-  <dimension ref="B2:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
-  <sheetData>
-    <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -6047,6 +6009,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CD9C6-0806-4DB7-849F-070A194FA86C}">
+  <dimension ref="B2:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" customHeight="1">
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:R3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A51A67D-5D12-4BB2-8B78-841DFC97BAFA}">
   <dimension ref="A1"/>
@@ -6064,33 +6085,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3EB6EE-27BD-4365-AA92-527DDB016D5A}">
-  <dimension ref="B2:AA24"/>
+  <dimension ref="B2:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:27" ht="15" customHeight="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="2:27" ht="15" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
     </row>
     <row r="6" spans="2:27" ht="15" customHeight="1">
       <c r="B6" s="8" t="s">
@@ -6137,21 +6158,21 @@
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="W14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="2:27" ht="15" customHeight="1">
       <c r="B15" s="3"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="2:27" ht="15" customHeight="1">
       <c r="B16" s="8" t="s">
@@ -6194,8 +6215,18 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="15" customHeight="1">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="15" customHeight="1">
+      <c r="B26" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="15" customHeight="1">
+      <c r="B28" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6216,9 +6247,11 @@
     <hyperlink ref="B20" r:id="rId8" xr:uid="{76C1E9AF-A97E-4E04-8BFB-53CE4DA5D7DE}"/>
     <hyperlink ref="B22" r:id="rId9" xr:uid="{26EE30B8-2F89-4145-8EA1-5A72F93AE659}"/>
     <hyperlink ref="B24" r:id="rId10" xr:uid="{6463CB4D-3ECB-4A4E-AE11-9D9D3B3A3660}"/>
+    <hyperlink ref="B26" r:id="rId11" xr:uid="{80878887-F92E-4012-B7B4-4C95E8931532}"/>
+    <hyperlink ref="B28" r:id="rId12" xr:uid="{45CAF83F-61A5-47B6-A68E-F847D88C27C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/AR接続端子説明書　基本設計.xlsx
+++ b/AR接続端子説明書　基本設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\ARTerminalManual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95528A00-1534-4E61-8E13-287200317307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242249D-A507-43BD-BE58-49E0A6F77844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>発行日　2019/12/13</t>
     <rPh sb="0" eb="2">
@@ -255,6 +255,9 @@
   <si>
     <t>[Unity] OpenFileDialogをWindowsアプリ(exe)で使う</t>
   </si>
+  <si>
+    <t>Unityでシンプルなポップアップを実装する</t>
+  </si>
 </sst>
 </file>
 
@@ -413,6 +416,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,12 +440,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5792,152 +5793,152 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="2:16" ht="15" customHeight="1">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5959,67 +5960,8 @@
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:R3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CD9C6-0806-4DB7-849F-070A194FA86C}">
-  <dimension ref="B2:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
-  <sheetData>
-    <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="15" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -6068,6 +6010,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CD9C6-0806-4DB7-849F-070A194FA86C}">
+  <dimension ref="B2:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" customHeight="1">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:R3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A51A67D-5D12-4BB2-8B78-841DFC97BAFA}">
   <dimension ref="A1"/>
@@ -6085,33 +6086,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3EB6EE-27BD-4365-AA92-527DDB016D5A}">
-  <dimension ref="B2:AA28"/>
+  <dimension ref="B2:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:27" ht="15" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="2:27" ht="15" customHeight="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="6" spans="2:27" ht="15" customHeight="1">
       <c r="B6" s="8" t="s">
@@ -6158,21 +6159,21 @@
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="17" t="s">
+      <c r="W14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="2:27" ht="15" customHeight="1">
       <c r="B15" s="3"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="2:27" ht="15" customHeight="1">
       <c r="B16" s="8" t="s">
@@ -6220,13 +6221,21 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="15" customHeight="1">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="15" customHeight="1">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="2:23" ht="15" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6249,9 +6258,10 @@
     <hyperlink ref="B24" r:id="rId10" xr:uid="{6463CB4D-3ECB-4A4E-AE11-9D9D3B3A3660}"/>
     <hyperlink ref="B26" r:id="rId11" xr:uid="{80878887-F92E-4012-B7B4-4C95E8931532}"/>
     <hyperlink ref="B28" r:id="rId12" xr:uid="{45CAF83F-61A5-47B6-A68E-F847D88C27C5}"/>
+    <hyperlink ref="B30" r:id="rId13" display="https://adarapata.hatenablog.com/entry/2016/07/26/002439" xr:uid="{C570DE5A-4839-425E-830A-A16DD5DDF1E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
